--- a/biology/Zoologie/Alysiinae/Alysiinae.xlsx
+++ b/biology/Zoologie/Alysiinae/Alysiinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Alysiinae sont une sous-famille d'insectes hyménoptères de la famille des Braconidae. Ce sont des parasites.
 </t>
@@ -511,7 +523,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Mandibules bien développées, tournées vers l'extérieur (exodontes).
 Parfois aptère.</t>
@@ -542,7 +556,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les membres de la tribu des Dacnusinii parasitent quasi exclusivement des Agromyzidae et sont assez spécifiques. Dacnusa siberica est utilisé en lutte biologique en Europe en cultures sous serre.
 Les membres de la tribu des Alysiini parasitent 25 familles différentes de Cyclorraphes : les Phaenocarpa parasitent des Anthomyiidae et des Scathophagidae. Les Alloea parasitent des Lonchopterides et les Gnathopleura parasitent les Muscoïdes calyptères.
@@ -576,9 +592,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (27 mai 2021)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (27 mai 2021) :
 tribu Alysiini
 genre Anisocyrta Foerster, 1862
 genre Aspilota Foerster, 1862
